--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/post_editing_sample.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/post_editing_sample.xlsx
@@ -805,13 +805,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FEE1739-B64A-4047-98FF-267A763CCF95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C522AE-5655-4353-81CA-07BBD89609C1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A12E3D27-2A18-4276-928B-9AF494A47979}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CAEA7FB-B18E-4DC2-8284-739CDB9EEDBC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E7451D-B953-4173-82CB-21EFBC66628A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879D9264-E3DE-4111-9A33-742999E5060C}"/>
 </file>